--- a/medicine/Enfance/Le_Capitaine_Slip/Le_Capitaine_Slip.xlsx
+++ b/medicine/Enfance/Le_Capitaine_Slip/Le_Capitaine_Slip.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Capitaine Slip (ou Les aventures du Capitaine Bobette au Québec ; titre original en anglais : Captain Underpants) est une série de livres pour les enfants de Dav Pilkey, l'auteur de Dog Man. DreamWorks Animation a adapté la série en film animé[1], le film est sorti en 2017.
-En 2016, la série a été vendue à plus de 70 millions d'exemplaires (50 millions aux États-Unis), et traduite en près de 20 langues[2].
+Le Capitaine Slip (ou Les aventures du Capitaine Bobette au Québec ; titre original en anglais : Captain Underpants) est une série de livres pour les enfants de Dav Pilkey, l'auteur de Dog Man. DreamWorks Animation a adapté la série en film animé, le film est sorti en 2017.
+En 2016, la série a été vendue à plus de 70 millions d'exemplaires (50 millions aux États-Unis), et traduite en près de 20 langues.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Georges Beard et Harold Hutchins (Georges Barnabé et Harold Hébert au Québec) sont les héros des livres. Ils sont les fondateurs des "Éditions de l'arbre inc." Georges porte une cravate et les cheveux en brosse. Harold porte un t-shirt. Ils adorent changer les lettres des menus.
 M. Krupp / Le Capitaine Slip (Abélard Bougon / Capitaine Bobette au Québec) est le directeur de l'école Jérôme-Horwitz. Quand on claque des doigts, Krupp devient le capitaine Slip.
@@ -553,10 +567,12 @@
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après l'American Library Association, les livres du Capitaine Slip ont été bannis de diverses bibliothèques à cause de leur humour scatologique[3].
-En 2015, le 12e opus du Capitaine Slip est sujet à controverse, parce que Harold se marie avec un homme[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après l'American Library Association, les livres du Capitaine Slip ont été bannis de diverses bibliothèques à cause de leur humour scatologique.
+En 2015, le 12e opus du Capitaine Slip est sujet à controverse, parce que Harold se marie avec un homme.
 </t>
         </is>
       </c>
@@ -585,7 +601,9 @@
           <t>Liste de livres au Québec</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les aventures de Capitaine Bobette
 Tome 1 : Les aventures du Capitaine Bobette  (ISBN 9780439005432)
@@ -631,9 +649,11 @@
           <t>Adaptation cinématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2011, DreamWorks Animation achète les droits cinématiques du Capitaine Slip. Divers comédiens, comme Kevin Hart (Georges Beard), Thomas Middleditch (Harold Hutchins), Ed Helms (M. Krupp / le capitaine Slip), Nick Kroll (le professeur Poopypants), et Jordan Peele (Melvin Sneedly), vont figurer dans le casting[2]. Le film sera réalisé par David Soren et adapté par Nicholas Stoller. La fabrication du projet a été confiée au studio français Mikros Image[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, DreamWorks Animation achète les droits cinématiques du Capitaine Slip. Divers comédiens, comme Kevin Hart (Georges Beard), Thomas Middleditch (Harold Hutchins), Ed Helms (M. Krupp / le capitaine Slip), Nick Kroll (le professeur Poopypants), et Jordan Peele (Melvin Sneedly), vont figurer dans le casting. Le film sera réalisé par David Soren et adapté par Nicholas Stoller. La fabrication du projet a été confiée au studio français Mikros Image.
 </t>
         </is>
       </c>
@@ -662,7 +682,9 @@
           <t>Titres en France</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les Aventures du capitaine Slip  (ISBN 9782846071031)
 Le Capitaine Slip et l'Attaque des toilettes parlantes  (ISBN 9782846070584)
